--- a/Financials/Yearly/EC_YR_FIN.xlsx
+++ b/Financials/Yearly/EC_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61278B1B-B78F-4DA4-8A6D-4A675180F935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18219400</v>
+        <v>17667300</v>
       </c>
       <c r="E8" s="3">
-        <v>15751700</v>
+        <v>15274400</v>
       </c>
       <c r="F8" s="3">
-        <v>17190000</v>
+        <v>16669100</v>
       </c>
       <c r="G8" s="3">
-        <v>21770700</v>
+        <v>21111000</v>
       </c>
       <c r="H8" s="3">
-        <v>23241500</v>
+        <v>22537200</v>
       </c>
       <c r="I8" s="3">
-        <v>22066200</v>
+        <v>21397500</v>
       </c>
       <c r="J8" s="3">
-        <v>20696200</v>
+        <v>20069100</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12174800</v>
+        <v>11805900</v>
       </c>
       <c r="E9" s="3">
-        <v>11298100</v>
+        <v>10955700</v>
       </c>
       <c r="F9" s="3">
-        <v>12208200</v>
+        <v>11838200</v>
       </c>
       <c r="G9" s="3">
-        <v>14382800</v>
+        <v>13947000</v>
       </c>
       <c r="H9" s="3">
-        <v>27333300</v>
+        <v>26505000</v>
       </c>
       <c r="I9" s="3">
-        <v>12656700</v>
+        <v>12273200</v>
       </c>
       <c r="J9" s="3">
-        <v>11061400</v>
+        <v>10726200</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6044500</v>
+        <v>5861400</v>
       </c>
       <c r="E10" s="3">
-        <v>4453600</v>
+        <v>4318600</v>
       </c>
       <c r="F10" s="3">
-        <v>4981800</v>
+        <v>4830900</v>
       </c>
       <c r="G10" s="3">
-        <v>7387900</v>
+        <v>7164000</v>
       </c>
       <c r="H10" s="3">
-        <v>-4091800</v>
+        <v>-3967800</v>
       </c>
       <c r="I10" s="3">
-        <v>9409400</v>
+        <v>9124300</v>
       </c>
       <c r="J10" s="3">
-        <v>9634800</v>
+        <v>9342800</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,24 +835,24 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>442800</v>
+        <v>429400</v>
       </c>
       <c r="E12" s="3">
-        <v>240400</v>
+        <v>233100</v>
       </c>
       <c r="F12" s="3">
-        <v>522800</v>
+        <v>507000</v>
       </c>
       <c r="G12" s="3">
-        <v>850200</v>
+        <v>824400</v>
       </c>
       <c r="H12" s="3">
-        <v>447200</v>
+        <v>433600</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,21 +889,21 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-578100</v>
+        <v>-560500</v>
       </c>
       <c r="E14" s="3">
-        <v>240600</v>
+        <v>233300</v>
       </c>
       <c r="F14" s="3">
-        <v>2665700</v>
+        <v>2584900</v>
       </c>
       <c r="G14" s="3">
-        <v>693300</v>
+        <v>672300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -881,24 +916,24 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>49300</v>
+        <v>47800</v>
       </c>
       <c r="E15" s="3">
-        <v>73600</v>
+        <v>71400</v>
       </c>
       <c r="F15" s="3">
-        <v>56300</v>
+        <v>54600</v>
       </c>
       <c r="G15" s="3">
-        <v>163100</v>
+        <v>158100</v>
       </c>
       <c r="H15" s="3">
-        <v>125400</v>
+        <v>121600</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
@@ -908,7 +943,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13102900</v>
+        <v>12705800</v>
       </c>
       <c r="E17" s="3">
-        <v>13028200</v>
+        <v>12633400</v>
       </c>
       <c r="F17" s="3">
-        <v>16709500</v>
+        <v>16203200</v>
       </c>
       <c r="G17" s="3">
-        <v>17002500</v>
+        <v>16487300</v>
       </c>
       <c r="H17" s="3">
-        <v>16036000</v>
+        <v>15550100</v>
       </c>
       <c r="I17" s="3">
-        <v>14292400</v>
+        <v>13859300</v>
       </c>
       <c r="J17" s="3">
-        <v>12883900</v>
+        <v>12493400</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5116500</v>
+        <v>4961500</v>
       </c>
       <c r="E18" s="3">
-        <v>2723500</v>
+        <v>2641000</v>
       </c>
       <c r="F18" s="3">
-        <v>480500</v>
+        <v>465900</v>
       </c>
       <c r="G18" s="3">
-        <v>4768200</v>
+        <v>4623700</v>
       </c>
       <c r="H18" s="3">
-        <v>7205500</v>
+        <v>6987100</v>
       </c>
       <c r="I18" s="3">
-        <v>7773800</v>
+        <v>7538200</v>
       </c>
       <c r="J18" s="3">
-        <v>7812300</v>
+        <v>7575600</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,78 +1020,78 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-27000</v>
+        <v>-26200</v>
       </c>
       <c r="E20" s="3">
-        <v>518700</v>
+        <v>503000</v>
       </c>
       <c r="F20" s="3">
-        <v>-714000</v>
+        <v>-692400</v>
       </c>
       <c r="G20" s="3">
-        <v>-850400</v>
+        <v>-824700</v>
       </c>
       <c r="H20" s="3">
-        <v>211200</v>
+        <v>204800</v>
       </c>
       <c r="I20" s="3">
-        <v>-377300</v>
+        <v>-365900</v>
       </c>
       <c r="J20" s="3">
-        <v>-71600</v>
+        <v>-69500</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7817500</v>
+        <v>7580600</v>
       </c>
       <c r="E21" s="3">
-        <v>5747600</v>
+        <v>5573400</v>
       </c>
       <c r="F21" s="3">
-        <v>2000700</v>
+        <v>1940100</v>
       </c>
       <c r="G21" s="3">
-        <v>7433000</v>
+        <v>7207700</v>
       </c>
       <c r="H21" s="3">
-        <v>9237700</v>
+        <v>8957700</v>
       </c>
       <c r="I21" s="3">
-        <v>9038900</v>
+        <v>8765000</v>
       </c>
       <c r="J21" s="3">
-        <v>9426900</v>
+        <v>9141300</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>787400</v>
+        <v>763500</v>
       </c>
       <c r="E22" s="3">
-        <v>912500</v>
+        <v>884800</v>
       </c>
       <c r="F22" s="3">
-        <v>583600</v>
+        <v>566000</v>
       </c>
       <c r="G22" s="3">
-        <v>248900</v>
+        <v>241400</v>
       </c>
       <c r="H22" s="3">
-        <v>195600</v>
+        <v>189600</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1066,61 +1101,61 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4302200</v>
+        <v>4171800</v>
       </c>
       <c r="E23" s="3">
-        <v>2329700</v>
+        <v>2259100</v>
       </c>
       <c r="F23" s="3">
-        <v>-817200</v>
+        <v>-792400</v>
       </c>
       <c r="G23" s="3">
-        <v>3668800</v>
+        <v>3557700</v>
       </c>
       <c r="H23" s="3">
-        <v>7221100</v>
+        <v>7002300</v>
       </c>
       <c r="I23" s="3">
-        <v>7396400</v>
+        <v>7172300</v>
       </c>
       <c r="J23" s="3">
-        <v>7740700</v>
+        <v>7506100</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1859500</v>
+        <v>1803200</v>
       </c>
       <c r="E24" s="3">
-        <v>1536300</v>
+        <v>1489800</v>
       </c>
       <c r="F24" s="3">
-        <v>200200</v>
+        <v>194100</v>
       </c>
       <c r="G24" s="3">
-        <v>1573800</v>
+        <v>1526100</v>
       </c>
       <c r="H24" s="3">
-        <v>2669300</v>
+        <v>2588400</v>
       </c>
       <c r="I24" s="3">
-        <v>2483600</v>
+        <v>2408300</v>
       </c>
       <c r="J24" s="3">
-        <v>2771700</v>
+        <v>2687700</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2442600</v>
+        <v>2368600</v>
       </c>
       <c r="E26" s="3">
-        <v>793400</v>
+        <v>769400</v>
       </c>
       <c r="F26" s="3">
-        <v>-1017300</v>
+        <v>-986500</v>
       </c>
       <c r="G26" s="3">
-        <v>2095000</v>
+        <v>2031500</v>
       </c>
       <c r="H26" s="3">
-        <v>4551800</v>
+        <v>4413900</v>
       </c>
       <c r="I26" s="3">
-        <v>4912900</v>
+        <v>4764000</v>
       </c>
       <c r="J26" s="3">
-        <v>4969000</v>
+        <v>4818400</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2184700</v>
+        <v>2118500</v>
       </c>
       <c r="E27" s="3">
-        <v>516400</v>
+        <v>500700</v>
       </c>
       <c r="F27" s="3">
-        <v>-1315900</v>
+        <v>-1276100</v>
       </c>
       <c r="G27" s="3">
-        <v>1889400</v>
+        <v>1832200</v>
       </c>
       <c r="H27" s="3">
-        <v>4325100</v>
+        <v>4194100</v>
       </c>
       <c r="I27" s="3">
-        <v>4849600</v>
+        <v>4702600</v>
       </c>
       <c r="J27" s="3">
-        <v>4889700</v>
+        <v>4741500</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>27000</v>
+        <v>26200</v>
       </c>
       <c r="E32" s="3">
-        <v>-518700</v>
+        <v>-503000</v>
       </c>
       <c r="F32" s="3">
-        <v>714000</v>
+        <v>692400</v>
       </c>
       <c r="G32" s="3">
-        <v>850400</v>
+        <v>824700</v>
       </c>
       <c r="H32" s="3">
-        <v>-211200</v>
+        <v>-204800</v>
       </c>
       <c r="I32" s="3">
-        <v>377300</v>
+        <v>365900</v>
       </c>
       <c r="J32" s="3">
-        <v>71600</v>
+        <v>69500</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2184700</v>
+        <v>2118500</v>
       </c>
       <c r="E33" s="3">
-        <v>516400</v>
+        <v>500700</v>
       </c>
       <c r="F33" s="3">
-        <v>-1315900</v>
+        <v>-1276100</v>
       </c>
       <c r="G33" s="3">
-        <v>1889400</v>
+        <v>1832200</v>
       </c>
       <c r="H33" s="3">
-        <v>4325100</v>
+        <v>4194100</v>
       </c>
       <c r="I33" s="3">
-        <v>4849600</v>
+        <v>4702600</v>
       </c>
       <c r="J33" s="3">
-        <v>4889700</v>
+        <v>4741500</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2184700</v>
+        <v>2118500</v>
       </c>
       <c r="E35" s="3">
-        <v>516400</v>
+        <v>500700</v>
       </c>
       <c r="F35" s="3">
-        <v>-1315900</v>
+        <v>-1276100</v>
       </c>
       <c r="G35" s="3">
-        <v>1889400</v>
+        <v>1832200</v>
       </c>
       <c r="H35" s="3">
-        <v>4325100</v>
+        <v>4194100</v>
       </c>
       <c r="I35" s="3">
-        <v>4849600</v>
+        <v>4702600</v>
       </c>
       <c r="J35" s="3">
-        <v>4889700</v>
+        <v>4741500</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,250 +1510,250 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1810500</v>
+        <v>1755700</v>
       </c>
       <c r="E41" s="3">
-        <v>1095700</v>
+        <v>1062500</v>
       </c>
       <c r="F41" s="3">
-        <v>1480000</v>
+        <v>1435100</v>
       </c>
       <c r="G41" s="3">
-        <v>4339900</v>
+        <v>4208400</v>
       </c>
       <c r="H41" s="3">
-        <v>5506200</v>
+        <v>5339300</v>
       </c>
       <c r="I41" s="3">
-        <v>2630900</v>
+        <v>2551100</v>
       </c>
       <c r="J41" s="3">
-        <v>2334300</v>
+        <v>2263500</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1791000</v>
+        <v>1736700</v>
       </c>
       <c r="E42" s="3">
-        <v>3450900</v>
+        <v>3346300</v>
       </c>
       <c r="F42" s="3">
-        <v>1091800</v>
+        <v>1058700</v>
       </c>
       <c r="G42" s="3">
-        <v>1975500</v>
+        <v>1915600</v>
       </c>
       <c r="H42" s="3">
-        <v>1386500</v>
+        <v>1344500</v>
       </c>
       <c r="I42" s="3">
-        <v>882200</v>
+        <v>855500</v>
       </c>
       <c r="J42" s="3">
-        <v>306300</v>
+        <v>297000</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2414200</v>
+        <v>2341000</v>
       </c>
       <c r="E43" s="3">
-        <v>2007700</v>
+        <v>1946900</v>
       </c>
       <c r="F43" s="3">
-        <v>2768500</v>
+        <v>2684600</v>
       </c>
       <c r="G43" s="3">
-        <v>3808100</v>
+        <v>3692700</v>
       </c>
       <c r="H43" s="3">
-        <v>2038400</v>
+        <v>1976600</v>
       </c>
       <c r="I43" s="3">
-        <v>2005100</v>
+        <v>1944300</v>
       </c>
       <c r="J43" s="3">
-        <v>1806700</v>
+        <v>1752000</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1518500</v>
+        <v>1472400</v>
       </c>
       <c r="E44" s="3">
-        <v>1267800</v>
+        <v>1229400</v>
       </c>
       <c r="F44" s="3">
-        <v>1009100</v>
+        <v>978500</v>
       </c>
       <c r="G44" s="3">
-        <v>2221200</v>
+        <v>2153900</v>
       </c>
       <c r="H44" s="3">
-        <v>2255700</v>
+        <v>2187300</v>
       </c>
       <c r="I44" s="3">
-        <v>881200</v>
+        <v>854500</v>
       </c>
       <c r="J44" s="3">
-        <v>889700</v>
+        <v>862800</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>129800</v>
+        <v>125800</v>
       </c>
       <c r="E45" s="3">
-        <v>140500</v>
+        <v>136200</v>
       </c>
       <c r="F45" s="3">
-        <v>288000</v>
+        <v>279300</v>
       </c>
       <c r="G45" s="3">
-        <v>1830600</v>
+        <v>1775200</v>
       </c>
       <c r="H45" s="3">
-        <v>3137200</v>
+        <v>3042100</v>
       </c>
       <c r="I45" s="3">
-        <v>814000</v>
+        <v>789300</v>
       </c>
       <c r="J45" s="3">
-        <v>540100</v>
+        <v>523800</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7663900</v>
+        <v>7431700</v>
       </c>
       <c r="E46" s="3">
-        <v>7962600</v>
+        <v>7721300</v>
       </c>
       <c r="F46" s="3">
-        <v>6637400</v>
+        <v>6436300</v>
       </c>
       <c r="G46" s="3">
-        <v>6811400</v>
+        <v>6605000</v>
       </c>
       <c r="H46" s="3">
-        <v>9674800</v>
+        <v>9381600</v>
       </c>
       <c r="I46" s="3">
-        <v>6653700</v>
+        <v>6452100</v>
       </c>
       <c r="J46" s="3">
-        <v>5877100</v>
+        <v>5699000</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1872200</v>
+        <v>1815500</v>
       </c>
       <c r="E47" s="3">
-        <v>1205600</v>
+        <v>1169100</v>
       </c>
       <c r="F47" s="3">
-        <v>1245000</v>
+        <v>1207300</v>
       </c>
       <c r="G47" s="3">
-        <v>1463100</v>
+        <v>1418800</v>
       </c>
       <c r="H47" s="3">
-        <v>1746800</v>
+        <v>1693800</v>
       </c>
       <c r="I47" s="3">
-        <v>4425600</v>
+        <v>4291400</v>
       </c>
       <c r="J47" s="3">
-        <v>2316300</v>
+        <v>2246100</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>27280500</v>
+        <v>26453800</v>
       </c>
       <c r="E48" s="3">
-        <v>27921300</v>
+        <v>27075200</v>
       </c>
       <c r="F48" s="3">
-        <v>29394500</v>
+        <v>28503700</v>
       </c>
       <c r="G48" s="3">
-        <v>53978100</v>
+        <v>52342400</v>
       </c>
       <c r="H48" s="3">
-        <v>42557400</v>
+        <v>41267800</v>
       </c>
       <c r="I48" s="3">
-        <v>27629600</v>
+        <v>26792300</v>
       </c>
       <c r="J48" s="3">
-        <v>13627600</v>
+        <v>13214700</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>428900</v>
+        <v>415900</v>
       </c>
       <c r="E49" s="3">
-        <v>393200</v>
+        <v>381300</v>
       </c>
       <c r="F49" s="3">
-        <v>431500</v>
+        <v>418400</v>
       </c>
       <c r="G49" s="3">
-        <v>631500</v>
+        <v>612400</v>
       </c>
       <c r="H49" s="3">
-        <v>1175900</v>
+        <v>1140300</v>
       </c>
       <c r="I49" s="3">
-        <v>417300</v>
+        <v>404600</v>
       </c>
       <c r="J49" s="3">
-        <v>458200</v>
+        <v>444300</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2577100</v>
+        <v>2499000</v>
       </c>
       <c r="E52" s="3">
-        <v>2548600</v>
+        <v>2471400</v>
       </c>
       <c r="F52" s="3">
-        <v>2880400</v>
+        <v>2793100</v>
       </c>
       <c r="G52" s="3">
-        <v>13453700</v>
+        <v>13046000</v>
       </c>
       <c r="H52" s="3">
-        <v>11108800</v>
+        <v>10772200</v>
       </c>
       <c r="I52" s="3">
-        <v>1079100</v>
+        <v>1046400</v>
       </c>
       <c r="J52" s="3">
-        <v>1120700</v>
+        <v>1086700</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39822600</v>
+        <v>38615900</v>
       </c>
       <c r="E54" s="3">
-        <v>40031400</v>
+        <v>38818400</v>
       </c>
       <c r="F54" s="3">
-        <v>40588700</v>
+        <v>39358700</v>
       </c>
       <c r="G54" s="3">
-        <v>36576500</v>
+        <v>35468100</v>
       </c>
       <c r="H54" s="3">
-        <v>43701200</v>
+        <v>42377000</v>
       </c>
       <c r="I54" s="3">
-        <v>26901400</v>
+        <v>26086200</v>
       </c>
       <c r="J54" s="3">
-        <v>23400000</v>
+        <v>22690900</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1679400</v>
+        <v>1628500</v>
       </c>
       <c r="E57" s="3">
-        <v>1540900</v>
+        <v>1494300</v>
       </c>
       <c r="F57" s="3">
-        <v>1643400</v>
+        <v>1593600</v>
       </c>
       <c r="G57" s="3">
-        <v>4942500</v>
+        <v>4792700</v>
       </c>
       <c r="H57" s="3">
-        <v>4488500</v>
+        <v>4352500</v>
       </c>
       <c r="I57" s="3">
-        <v>2387000</v>
+        <v>2314700</v>
       </c>
       <c r="J57" s="3">
-        <v>1664400</v>
+        <v>1613900</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1697700</v>
+        <v>1646200</v>
       </c>
       <c r="E58" s="3">
-        <v>1361600</v>
+        <v>1320400</v>
       </c>
       <c r="F58" s="3">
-        <v>1509300</v>
+        <v>1463600</v>
       </c>
       <c r="G58" s="3">
-        <v>1160800</v>
+        <v>1125600</v>
       </c>
       <c r="H58" s="3">
-        <v>297400</v>
+        <v>288400</v>
       </c>
       <c r="I58" s="3">
-        <v>712500</v>
+        <v>690900</v>
       </c>
       <c r="J58" s="3">
-        <v>312300</v>
+        <v>302800</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2182300</v>
+        <v>2116200</v>
       </c>
       <c r="E59" s="3">
-        <v>2505200</v>
+        <v>2429300</v>
       </c>
       <c r="F59" s="3">
-        <v>2603700</v>
+        <v>2524800</v>
       </c>
       <c r="G59" s="3">
-        <v>2592900</v>
+        <v>2514300</v>
       </c>
       <c r="H59" s="3">
-        <v>5288700</v>
+        <v>5128400</v>
       </c>
       <c r="I59" s="3">
-        <v>3212900</v>
+        <v>3115500</v>
       </c>
       <c r="J59" s="3">
-        <v>2637900</v>
+        <v>2558000</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5559400</v>
+        <v>5390900</v>
       </c>
       <c r="E60" s="3">
-        <v>5407800</v>
+        <v>5244000</v>
       </c>
       <c r="F60" s="3">
-        <v>5756400</v>
+        <v>5582000</v>
       </c>
       <c r="G60" s="3">
-        <v>5558400</v>
+        <v>5390000</v>
       </c>
       <c r="H60" s="3">
-        <v>7337700</v>
+        <v>7115400</v>
       </c>
       <c r="I60" s="3">
-        <v>5871300</v>
+        <v>5693400</v>
       </c>
       <c r="J60" s="3">
-        <v>4614600</v>
+        <v>4474700</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12673100</v>
+        <v>12289100</v>
       </c>
       <c r="E61" s="3">
-        <v>15871600</v>
+        <v>15390700</v>
       </c>
       <c r="F61" s="3">
-        <v>16054400</v>
+        <v>15567900</v>
       </c>
       <c r="G61" s="3">
-        <v>10403000</v>
+        <v>10087700</v>
       </c>
       <c r="H61" s="3">
-        <v>7069900</v>
+        <v>6855700</v>
       </c>
       <c r="I61" s="3">
-        <v>4414500</v>
+        <v>4280700</v>
       </c>
       <c r="J61" s="3">
-        <v>2886800</v>
+        <v>2799300</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5162300</v>
+        <v>5005900</v>
       </c>
       <c r="E62" s="3">
-        <v>3796500</v>
+        <v>3681400</v>
       </c>
       <c r="F62" s="3">
-        <v>3851400</v>
+        <v>3734700</v>
       </c>
       <c r="G62" s="3">
-        <v>7463400</v>
+        <v>7237200</v>
       </c>
       <c r="H62" s="3">
-        <v>4415700</v>
+        <v>4281900</v>
       </c>
       <c r="I62" s="3">
-        <v>3566500</v>
+        <v>3458400</v>
       </c>
       <c r="J62" s="3">
-        <v>3245300</v>
+        <v>3147000</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24016000</v>
+        <v>23288300</v>
       </c>
       <c r="E66" s="3">
-        <v>25619100</v>
+        <v>24842700</v>
       </c>
       <c r="F66" s="3">
-        <v>26280900</v>
+        <v>25484600</v>
       </c>
       <c r="G66" s="3">
-        <v>20729400</v>
+        <v>20101300</v>
       </c>
       <c r="H66" s="3">
-        <v>20231900</v>
+        <v>19618800</v>
       </c>
       <c r="I66" s="3">
-        <v>14477400</v>
+        <v>14038700</v>
       </c>
       <c r="J66" s="3">
-        <v>11501800</v>
+        <v>11153200</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3262600</v>
+        <v>3163800</v>
       </c>
       <c r="E72" s="3">
-        <v>1294900</v>
+        <v>1255700</v>
       </c>
       <c r="F72" s="3">
-        <v>463200</v>
+        <v>449200</v>
       </c>
       <c r="G72" s="3">
-        <v>28804400</v>
+        <v>27931600</v>
       </c>
       <c r="H72" s="3">
-        <v>26255700</v>
+        <v>25460100</v>
       </c>
       <c r="I72" s="3">
-        <v>16555300</v>
+        <v>16053700</v>
       </c>
       <c r="J72" s="3">
-        <v>7498900</v>
+        <v>7271700</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15806500</v>
+        <v>15327600</v>
       </c>
       <c r="E76" s="3">
-        <v>14412400</v>
+        <v>13975600</v>
       </c>
       <c r="F76" s="3">
-        <v>14307700</v>
+        <v>13874100</v>
       </c>
       <c r="G76" s="3">
-        <v>15847100</v>
+        <v>15366800</v>
       </c>
       <c r="H76" s="3">
-        <v>23469300</v>
+        <v>22758100</v>
       </c>
       <c r="I76" s="3">
-        <v>12424000</v>
+        <v>12047500</v>
       </c>
       <c r="J76" s="3">
-        <v>11898200</v>
+        <v>11537700</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2184700</v>
+        <v>2118500</v>
       </c>
       <c r="E81" s="3">
-        <v>516400</v>
+        <v>500700</v>
       </c>
       <c r="F81" s="3">
-        <v>-1315900</v>
+        <v>-1276100</v>
       </c>
       <c r="G81" s="3">
-        <v>1889400</v>
+        <v>1832200</v>
       </c>
       <c r="H81" s="3">
-        <v>4325100</v>
+        <v>4194100</v>
       </c>
       <c r="I81" s="3">
-        <v>4849600</v>
+        <v>4702600</v>
       </c>
       <c r="J81" s="3">
-        <v>4889700</v>
+        <v>4741500</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2727900</v>
+        <v>2645300</v>
       </c>
       <c r="E83" s="3">
-        <v>2505400</v>
+        <v>2429500</v>
       </c>
       <c r="F83" s="3">
-        <v>2234200</v>
+        <v>2166500</v>
       </c>
       <c r="G83" s="3">
-        <v>3515200</v>
+        <v>3408700</v>
       </c>
       <c r="H83" s="3">
-        <v>1821000</v>
+        <v>1765800</v>
       </c>
       <c r="I83" s="3">
-        <v>1642400</v>
+        <v>1592600</v>
       </c>
       <c r="J83" s="3">
-        <v>1686200</v>
+        <v>1635100</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5601300</v>
+        <v>5431600</v>
       </c>
       <c r="E89" s="3">
-        <v>4764500</v>
+        <v>4620200</v>
       </c>
       <c r="F89" s="3">
-        <v>3435800</v>
+        <v>3331700</v>
       </c>
       <c r="G89" s="3">
-        <v>5469100</v>
+        <v>5303400</v>
       </c>
       <c r="H89" s="3">
-        <v>5782500</v>
+        <v>5607300</v>
       </c>
       <c r="I89" s="3">
-        <v>6642000</v>
+        <v>6440700</v>
       </c>
       <c r="J89" s="3">
-        <v>7312900</v>
+        <v>7091300</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1968600</v>
+        <v>-1852700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1926400</v>
+        <v>-1845800</v>
       </c>
       <c r="F91" s="3">
-        <v>-4703000</v>
+        <v>-4524600</v>
       </c>
       <c r="G91" s="3">
-        <v>-4644400</v>
+        <v>-4467800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2626800</v>
+        <v>-2547200</v>
       </c>
       <c r="I91" s="3">
-        <v>-3085500</v>
+        <v>-2992000</v>
       </c>
       <c r="J91" s="3">
-        <v>-3333100</v>
+        <v>-3232100</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1446600</v>
+        <v>-1402800</v>
       </c>
       <c r="E94" s="3">
-        <v>-3164200</v>
+        <v>-3068400</v>
       </c>
       <c r="F94" s="3">
-        <v>-3809900</v>
+        <v>-3694400</v>
       </c>
       <c r="G94" s="3">
-        <v>-3817700</v>
+        <v>-3702000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3188600</v>
+        <v>-3092000</v>
       </c>
       <c r="I94" s="3">
-        <v>-5284300</v>
+        <v>-5124200</v>
       </c>
       <c r="J94" s="3">
-        <v>-4819300</v>
+        <v>-4673200</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-496500</v>
+        <v>-481500</v>
       </c>
       <c r="E96" s="3">
-        <v>-565100</v>
+        <v>-547900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1812800</v>
+        <v>-1757900</v>
       </c>
       <c r="G96" s="3">
-        <v>-590500</v>
+        <v>-572600</v>
       </c>
       <c r="H96" s="3">
-        <v>-4808300</v>
+        <v>-4662500</v>
       </c>
       <c r="I96" s="3">
-        <v>-2778400</v>
+        <v>-2694200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1949300</v>
+        <v>-1890200</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4212200</v>
+        <v>-4084500</v>
       </c>
       <c r="E100" s="3">
-        <v>-911800</v>
+        <v>-884200</v>
       </c>
       <c r="F100" s="3">
-        <v>-459400</v>
+        <v>-445500</v>
       </c>
       <c r="G100" s="3">
-        <v>-2424200</v>
+        <v>-2350800</v>
       </c>
       <c r="H100" s="3">
-        <v>-2335700</v>
+        <v>-2264900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1140900</v>
+        <v>-1106300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1444700</v>
+        <v>-1400900</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-95800</v>
+        <v>-92900</v>
       </c>
       <c r="E101" s="3">
-        <v>-74700</v>
+        <v>-72400</v>
       </c>
       <c r="F101" s="3">
-        <v>481100</v>
+        <v>466600</v>
       </c>
       <c r="G101" s="3">
-        <v>381200</v>
+        <v>369700</v>
       </c>
       <c r="H101" s="3">
-        <v>39000</v>
+        <v>37800</v>
       </c>
       <c r="I101" s="3">
-        <v>79800</v>
+        <v>77400</v>
       </c>
       <c r="J101" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-153300</v>
+        <v>-148700</v>
       </c>
       <c r="E102" s="3">
-        <v>613800</v>
+        <v>595200</v>
       </c>
       <c r="F102" s="3">
-        <v>-352400</v>
+        <v>-341700</v>
       </c>
       <c r="G102" s="3">
-        <v>-391700</v>
+        <v>-379800</v>
       </c>
       <c r="H102" s="3">
-        <v>297200</v>
+        <v>288200</v>
       </c>
       <c r="I102" s="3">
-        <v>296600</v>
+        <v>287600</v>
       </c>
       <c r="J102" s="3">
-        <v>1043700</v>
+        <v>1012100</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/EC_YR_FIN.xlsx
+++ b/Financials/Yearly/EC_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61278B1B-B78F-4DA4-8A6D-4A675180F935}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="EC" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17667300</v>
+        <v>20346000</v>
       </c>
       <c r="E8" s="3">
-        <v>15274400</v>
+        <v>16563100</v>
       </c>
       <c r="F8" s="3">
-        <v>16669100</v>
+        <v>14319700</v>
       </c>
       <c r="G8" s="3">
-        <v>21111000</v>
+        <v>15627300</v>
       </c>
       <c r="H8" s="3">
-        <v>22537200</v>
+        <v>19791600</v>
       </c>
       <c r="I8" s="3">
-        <v>21397500</v>
+        <v>21128600</v>
       </c>
       <c r="J8" s="3">
+        <v>20060100</v>
+      </c>
+      <c r="K8" s="3">
         <v>20069100</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11805900</v>
+        <v>12350900</v>
       </c>
       <c r="E9" s="3">
-        <v>10955700</v>
+        <v>11068000</v>
       </c>
       <c r="F9" s="3">
-        <v>11838200</v>
+        <v>10271000</v>
       </c>
       <c r="G9" s="3">
-        <v>13947000</v>
+        <v>11098400</v>
       </c>
       <c r="H9" s="3">
-        <v>26505000</v>
+        <v>13075300</v>
       </c>
       <c r="I9" s="3">
-        <v>12273200</v>
+        <v>24848500</v>
       </c>
       <c r="J9" s="3">
+        <v>11506100</v>
+      </c>
+      <c r="K9" s="3">
         <v>10726200</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5861400</v>
+        <v>7995100</v>
       </c>
       <c r="E10" s="3">
-        <v>4318600</v>
+        <v>5495000</v>
       </c>
       <c r="F10" s="3">
-        <v>4830900</v>
+        <v>4048700</v>
       </c>
       <c r="G10" s="3">
-        <v>7164000</v>
+        <v>4528900</v>
       </c>
       <c r="H10" s="3">
-        <v>-3967800</v>
+        <v>6716300</v>
       </c>
       <c r="I10" s="3">
-        <v>9124300</v>
+        <v>-3719800</v>
       </c>
       <c r="J10" s="3">
+        <v>8554000</v>
+      </c>
+      <c r="K10" s="3">
         <v>9342800</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>429400</v>
+        <v>416200</v>
       </c>
       <c r="E12" s="3">
-        <v>233100</v>
+        <v>402600</v>
       </c>
       <c r="F12" s="3">
-        <v>507000</v>
+        <v>218600</v>
       </c>
       <c r="G12" s="3">
-        <v>824400</v>
+        <v>475300</v>
       </c>
       <c r="H12" s="3">
-        <v>433600</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
+        <v>772900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>406500</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,26 +868,29 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-560500</v>
+        <v>128100</v>
       </c>
       <c r="E14" s="3">
-        <v>233300</v>
+        <v>-525500</v>
       </c>
       <c r="F14" s="3">
-        <v>2584900</v>
+        <v>218700</v>
       </c>
       <c r="G14" s="3">
-        <v>672300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>2423400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>630300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -914,36 +898,42 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>47800</v>
+        <v>25500</v>
       </c>
       <c r="E15" s="3">
-        <v>71400</v>
+        <v>44800</v>
       </c>
       <c r="F15" s="3">
-        <v>54600</v>
+        <v>66900</v>
       </c>
       <c r="G15" s="3">
-        <v>158100</v>
+        <v>51200</v>
       </c>
       <c r="H15" s="3">
-        <v>121600</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+        <v>148300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>114000</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12705800</v>
+        <v>13832600</v>
       </c>
       <c r="E17" s="3">
-        <v>12633400</v>
+        <v>11911700</v>
       </c>
       <c r="F17" s="3">
-        <v>16203200</v>
+        <v>11843800</v>
       </c>
       <c r="G17" s="3">
-        <v>16487300</v>
+        <v>15190500</v>
       </c>
       <c r="H17" s="3">
-        <v>15550100</v>
+        <v>15456900</v>
       </c>
       <c r="I17" s="3">
-        <v>13859300</v>
+        <v>14578200</v>
       </c>
       <c r="J17" s="3">
+        <v>12993100</v>
+      </c>
+      <c r="K17" s="3">
         <v>12493400</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4961500</v>
+        <v>6513400</v>
       </c>
       <c r="E18" s="3">
-        <v>2641000</v>
+        <v>4651400</v>
       </c>
       <c r="F18" s="3">
-        <v>465900</v>
+        <v>2475900</v>
       </c>
       <c r="G18" s="3">
-        <v>4623700</v>
+        <v>436800</v>
       </c>
       <c r="H18" s="3">
-        <v>6987100</v>
+        <v>4334700</v>
       </c>
       <c r="I18" s="3">
-        <v>7538200</v>
+        <v>6550400</v>
       </c>
       <c r="J18" s="3">
+        <v>7067100</v>
+      </c>
+      <c r="K18" s="3">
         <v>7575600</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-26200</v>
+        <v>163200</v>
       </c>
       <c r="E20" s="3">
-        <v>503000</v>
+        <v>-24500</v>
       </c>
       <c r="F20" s="3">
-        <v>-692400</v>
+        <v>471500</v>
       </c>
       <c r="G20" s="3">
-        <v>-824700</v>
+        <v>-649100</v>
       </c>
       <c r="H20" s="3">
-        <v>204800</v>
+        <v>-773100</v>
       </c>
       <c r="I20" s="3">
-        <v>-365900</v>
+        <v>192000</v>
       </c>
       <c r="J20" s="3">
+        <v>-343000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-69500</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7580600</v>
+        <v>8983600</v>
       </c>
       <c r="E21" s="3">
-        <v>5573400</v>
+        <v>7106800</v>
       </c>
       <c r="F21" s="3">
-        <v>1940100</v>
+        <v>5225100</v>
       </c>
       <c r="G21" s="3">
-        <v>7207700</v>
+        <v>1818800</v>
       </c>
       <c r="H21" s="3">
-        <v>8957700</v>
+        <v>6757200</v>
       </c>
       <c r="I21" s="3">
-        <v>8765000</v>
+        <v>8397900</v>
       </c>
       <c r="J21" s="3">
+        <v>8217100</v>
+      </c>
+      <c r="K21" s="3">
         <v>9141300</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>763500</v>
+        <v>719800</v>
       </c>
       <c r="E22" s="3">
-        <v>884800</v>
+        <v>715800</v>
       </c>
       <c r="F22" s="3">
-        <v>566000</v>
+        <v>829500</v>
       </c>
       <c r="G22" s="3">
-        <v>241400</v>
+        <v>530600</v>
       </c>
       <c r="H22" s="3">
-        <v>189600</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+        <v>226300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>177800</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4171800</v>
+        <v>5956800</v>
       </c>
       <c r="E23" s="3">
-        <v>2259100</v>
+        <v>3911100</v>
       </c>
       <c r="F23" s="3">
-        <v>-792400</v>
+        <v>2117900</v>
       </c>
       <c r="G23" s="3">
-        <v>3557700</v>
+        <v>-742900</v>
       </c>
       <c r="H23" s="3">
-        <v>7002300</v>
+        <v>3335300</v>
       </c>
       <c r="I23" s="3">
-        <v>7172300</v>
+        <v>6564700</v>
       </c>
       <c r="J23" s="3">
+        <v>6724000</v>
+      </c>
+      <c r="K23" s="3">
         <v>7506100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1803200</v>
+        <v>2196600</v>
       </c>
       <c r="E24" s="3">
-        <v>1489800</v>
+        <v>1690500</v>
       </c>
       <c r="F24" s="3">
-        <v>194100</v>
+        <v>1396600</v>
       </c>
       <c r="G24" s="3">
-        <v>1526100</v>
+        <v>182000</v>
       </c>
       <c r="H24" s="3">
-        <v>2588400</v>
+        <v>1430700</v>
       </c>
       <c r="I24" s="3">
-        <v>2408300</v>
+        <v>2426700</v>
       </c>
       <c r="J24" s="3">
+        <v>2257800</v>
+      </c>
+      <c r="K24" s="3">
         <v>2687700</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2368600</v>
+        <v>3760100</v>
       </c>
       <c r="E26" s="3">
-        <v>769400</v>
+        <v>2220600</v>
       </c>
       <c r="F26" s="3">
-        <v>-986500</v>
+        <v>721300</v>
       </c>
       <c r="G26" s="3">
-        <v>2031500</v>
+        <v>-924900</v>
       </c>
       <c r="H26" s="3">
-        <v>4413900</v>
+        <v>1904600</v>
       </c>
       <c r="I26" s="3">
-        <v>4764000</v>
+        <v>4138000</v>
       </c>
       <c r="J26" s="3">
+        <v>4466200</v>
+      </c>
+      <c r="K26" s="3">
         <v>4818400</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2118500</v>
+        <v>3466900</v>
       </c>
       <c r="E27" s="3">
-        <v>500700</v>
+        <v>1986100</v>
       </c>
       <c r="F27" s="3">
-        <v>-1276100</v>
+        <v>469400</v>
       </c>
       <c r="G27" s="3">
-        <v>1832200</v>
+        <v>-1196300</v>
       </c>
       <c r="H27" s="3">
-        <v>4194100</v>
+        <v>1717700</v>
       </c>
       <c r="I27" s="3">
-        <v>4702600</v>
+        <v>3932000</v>
       </c>
       <c r="J27" s="3">
+        <v>4408700</v>
+      </c>
+      <c r="K27" s="3">
         <v>4741500</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>26200</v>
+        <v>-163200</v>
       </c>
       <c r="E32" s="3">
-        <v>-503000</v>
+        <v>24500</v>
       </c>
       <c r="F32" s="3">
-        <v>692400</v>
+        <v>-471500</v>
       </c>
       <c r="G32" s="3">
-        <v>824700</v>
+        <v>649100</v>
       </c>
       <c r="H32" s="3">
-        <v>-204800</v>
+        <v>773100</v>
       </c>
       <c r="I32" s="3">
-        <v>365900</v>
+        <v>-192000</v>
       </c>
       <c r="J32" s="3">
+        <v>343000</v>
+      </c>
+      <c r="K32" s="3">
         <v>69500</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2118500</v>
+        <v>3466900</v>
       </c>
       <c r="E33" s="3">
-        <v>500700</v>
+        <v>1986100</v>
       </c>
       <c r="F33" s="3">
-        <v>-1276100</v>
+        <v>469400</v>
       </c>
       <c r="G33" s="3">
-        <v>1832200</v>
+        <v>-1196300</v>
       </c>
       <c r="H33" s="3">
-        <v>4194100</v>
+        <v>1717700</v>
       </c>
       <c r="I33" s="3">
-        <v>4702600</v>
+        <v>3932000</v>
       </c>
       <c r="J33" s="3">
+        <v>4408700</v>
+      </c>
+      <c r="K33" s="3">
         <v>4741500</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2118500</v>
+        <v>3466900</v>
       </c>
       <c r="E35" s="3">
-        <v>500700</v>
+        <v>1986100</v>
       </c>
       <c r="F35" s="3">
-        <v>-1276100</v>
+        <v>469400</v>
       </c>
       <c r="G35" s="3">
-        <v>1832200</v>
+        <v>-1196300</v>
       </c>
       <c r="H35" s="3">
-        <v>4194100</v>
+        <v>1717700</v>
       </c>
       <c r="I35" s="3">
-        <v>4702600</v>
+        <v>3932000</v>
       </c>
       <c r="J35" s="3">
+        <v>4408700</v>
+      </c>
+      <c r="K35" s="3">
         <v>4741500</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,251 +1559,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1755700</v>
+        <v>1893500</v>
       </c>
       <c r="E41" s="3">
-        <v>1062500</v>
+        <v>2383800</v>
       </c>
       <c r="F41" s="3">
-        <v>1435100</v>
+        <v>2523100</v>
       </c>
       <c r="G41" s="3">
-        <v>4208400</v>
+        <v>1965100</v>
       </c>
       <c r="H41" s="3">
-        <v>5339300</v>
+        <v>4695300</v>
       </c>
       <c r="I41" s="3">
-        <v>2551100</v>
+        <v>5277400</v>
       </c>
       <c r="J41" s="3">
+        <v>2391700</v>
+      </c>
+      <c r="K41" s="3">
         <v>2263500</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1736700</v>
+        <v>1596300</v>
       </c>
       <c r="E42" s="3">
-        <v>3346300</v>
+        <v>890400</v>
       </c>
       <c r="F42" s="3">
-        <v>1058700</v>
+        <v>1610100</v>
       </c>
       <c r="G42" s="3">
-        <v>1915600</v>
+        <v>372800</v>
       </c>
       <c r="H42" s="3">
-        <v>1344500</v>
+        <v>1046000</v>
       </c>
       <c r="I42" s="3">
-        <v>855500</v>
+        <v>988600</v>
       </c>
       <c r="J42" s="3">
+        <v>802000</v>
+      </c>
+      <c r="K42" s="3">
         <v>297000</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2341000</v>
+        <v>2929300</v>
       </c>
       <c r="E43" s="3">
-        <v>1946900</v>
+        <v>2194700</v>
       </c>
       <c r="F43" s="3">
-        <v>2684600</v>
+        <v>1825200</v>
       </c>
       <c r="G43" s="3">
-        <v>3692700</v>
+        <v>2516800</v>
       </c>
       <c r="H43" s="3">
-        <v>1976600</v>
+        <v>3461900</v>
       </c>
       <c r="I43" s="3">
-        <v>1944300</v>
+        <v>1853100</v>
       </c>
       <c r="J43" s="3">
+        <v>1822800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1752000</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1472400</v>
+        <v>1530100</v>
       </c>
       <c r="E44" s="3">
-        <v>1229400</v>
+        <v>1380400</v>
       </c>
       <c r="F44" s="3">
-        <v>978500</v>
+        <v>1152600</v>
       </c>
       <c r="G44" s="3">
-        <v>2153900</v>
+        <v>917400</v>
       </c>
       <c r="H44" s="3">
-        <v>2187300</v>
+        <v>2019300</v>
       </c>
       <c r="I44" s="3">
-        <v>854500</v>
+        <v>2050600</v>
       </c>
       <c r="J44" s="3">
+        <v>801100</v>
+      </c>
+      <c r="K44" s="3">
         <v>862800</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>125800</v>
+        <v>159900</v>
       </c>
       <c r="E45" s="3">
-        <v>136200</v>
+        <v>118000</v>
       </c>
       <c r="F45" s="3">
-        <v>279300</v>
+        <v>127700</v>
       </c>
       <c r="G45" s="3">
-        <v>1775200</v>
+        <v>261900</v>
       </c>
       <c r="H45" s="3">
-        <v>3042100</v>
+        <v>1664200</v>
       </c>
       <c r="I45" s="3">
-        <v>789300</v>
+        <v>2852000</v>
       </c>
       <c r="J45" s="3">
+        <v>740000</v>
+      </c>
+      <c r="K45" s="3">
         <v>523800</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7431700</v>
+        <v>8109200</v>
       </c>
       <c r="E46" s="3">
-        <v>7721300</v>
+        <v>6967200</v>
       </c>
       <c r="F46" s="3">
-        <v>6436300</v>
+        <v>7238700</v>
       </c>
       <c r="G46" s="3">
-        <v>6605000</v>
+        <v>6034000</v>
       </c>
       <c r="H46" s="3">
-        <v>9381600</v>
+        <v>6192200</v>
       </c>
       <c r="I46" s="3">
-        <v>6452100</v>
+        <v>8795300</v>
       </c>
       <c r="J46" s="3">
+        <v>6048800</v>
+      </c>
+      <c r="K46" s="3">
         <v>5699000</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1815500</v>
+        <v>1628000</v>
       </c>
       <c r="E47" s="3">
-        <v>1169100</v>
+        <v>1702000</v>
       </c>
       <c r="F47" s="3">
-        <v>1207300</v>
+        <v>1096000</v>
       </c>
       <c r="G47" s="3">
-        <v>1418800</v>
+        <v>1131800</v>
       </c>
       <c r="H47" s="3">
-        <v>1693800</v>
+        <v>1330100</v>
       </c>
       <c r="I47" s="3">
-        <v>4291400</v>
+        <v>1588000</v>
       </c>
       <c r="J47" s="3">
+        <v>4023200</v>
+      </c>
+      <c r="K47" s="3">
         <v>2246100</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26453800</v>
+        <v>25753700</v>
       </c>
       <c r="E48" s="3">
-        <v>27075200</v>
+        <v>24800400</v>
       </c>
       <c r="F48" s="3">
-        <v>28503700</v>
+        <v>25383000</v>
       </c>
       <c r="G48" s="3">
-        <v>52342400</v>
+        <v>26722200</v>
       </c>
       <c r="H48" s="3">
-        <v>41267800</v>
+        <v>49071000</v>
       </c>
       <c r="I48" s="3">
-        <v>26792300</v>
+        <v>38688500</v>
       </c>
       <c r="J48" s="3">
+        <v>25117800</v>
+      </c>
+      <c r="K48" s="3">
         <v>13214700</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>415900</v>
+        <v>399100</v>
       </c>
       <c r="E49" s="3">
-        <v>381300</v>
+        <v>389900</v>
       </c>
       <c r="F49" s="3">
-        <v>418400</v>
+        <v>357500</v>
       </c>
       <c r="G49" s="3">
-        <v>612400</v>
+        <v>392200</v>
       </c>
       <c r="H49" s="3">
-        <v>1140300</v>
+        <v>574100</v>
       </c>
       <c r="I49" s="3">
-        <v>404600</v>
+        <v>1069000</v>
       </c>
       <c r="J49" s="3">
+        <v>379300</v>
+      </c>
+      <c r="K49" s="3">
         <v>444300</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2499000</v>
+        <v>1982200</v>
       </c>
       <c r="E52" s="3">
-        <v>2471400</v>
+        <v>1808200</v>
       </c>
       <c r="F52" s="3">
-        <v>2793100</v>
+        <v>2316900</v>
       </c>
       <c r="G52" s="3">
-        <v>13046000</v>
+        <v>2618500</v>
       </c>
       <c r="H52" s="3">
-        <v>10772200</v>
+        <v>12230700</v>
       </c>
       <c r="I52" s="3">
-        <v>1046400</v>
+        <v>10098900</v>
       </c>
       <c r="J52" s="3">
+        <v>981000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1086700</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>38615900</v>
+        <v>37872200</v>
       </c>
       <c r="E54" s="3">
-        <v>38818400</v>
+        <v>35667800</v>
       </c>
       <c r="F54" s="3">
-        <v>39358700</v>
+        <v>36392200</v>
       </c>
       <c r="G54" s="3">
-        <v>35468100</v>
+        <v>36898800</v>
       </c>
       <c r="H54" s="3">
-        <v>42377000</v>
+        <v>33251400</v>
       </c>
       <c r="I54" s="3">
-        <v>26086200</v>
+        <v>39728400</v>
       </c>
       <c r="J54" s="3">
+        <v>24455800</v>
+      </c>
+      <c r="K54" s="3">
         <v>22690900</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1628500</v>
+        <v>2063600</v>
       </c>
       <c r="E57" s="3">
-        <v>1494300</v>
+        <v>1526700</v>
       </c>
       <c r="F57" s="3">
-        <v>1593600</v>
+        <v>1400900</v>
       </c>
       <c r="G57" s="3">
-        <v>4792700</v>
+        <v>1494000</v>
       </c>
       <c r="H57" s="3">
-        <v>4352500</v>
+        <v>4493200</v>
       </c>
       <c r="I57" s="3">
-        <v>2314700</v>
+        <v>4080500</v>
       </c>
       <c r="J57" s="3">
+        <v>2170000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1613900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1646200</v>
+        <v>1206000</v>
       </c>
       <c r="E58" s="3">
-        <v>1320400</v>
+        <v>1543400</v>
       </c>
       <c r="F58" s="3">
-        <v>1463600</v>
+        <v>1237900</v>
       </c>
       <c r="G58" s="3">
-        <v>1125600</v>
+        <v>1372100</v>
       </c>
       <c r="H58" s="3">
-        <v>288400</v>
+        <v>1055300</v>
       </c>
       <c r="I58" s="3">
-        <v>690900</v>
+        <v>270400</v>
       </c>
       <c r="J58" s="3">
+        <v>647700</v>
+      </c>
+      <c r="K58" s="3">
         <v>302800</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2116200</v>
+        <v>2077900</v>
       </c>
       <c r="E59" s="3">
-        <v>2429300</v>
+        <v>1983900</v>
       </c>
       <c r="F59" s="3">
-        <v>2524800</v>
+        <v>2277500</v>
       </c>
       <c r="G59" s="3">
-        <v>2514300</v>
+        <v>2367000</v>
       </c>
       <c r="H59" s="3">
-        <v>5128400</v>
+        <v>2357200</v>
       </c>
       <c r="I59" s="3">
-        <v>3115500</v>
+        <v>4807900</v>
       </c>
       <c r="J59" s="3">
+        <v>2920800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2558000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5390900</v>
+        <v>5347400</v>
       </c>
       <c r="E60" s="3">
-        <v>5244000</v>
+        <v>5054000</v>
       </c>
       <c r="F60" s="3">
-        <v>5582000</v>
+        <v>4916200</v>
       </c>
       <c r="G60" s="3">
-        <v>5390000</v>
+        <v>5233100</v>
       </c>
       <c r="H60" s="3">
-        <v>7115400</v>
+        <v>5053100</v>
       </c>
       <c r="I60" s="3">
-        <v>5693400</v>
+        <v>6670700</v>
       </c>
       <c r="J60" s="3">
+        <v>5337600</v>
+      </c>
+      <c r="K60" s="3">
         <v>4474700</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12289100</v>
+        <v>10212800</v>
       </c>
       <c r="E61" s="3">
-        <v>15390700</v>
+        <v>11521000</v>
       </c>
       <c r="F61" s="3">
-        <v>15567900</v>
+        <v>14428700</v>
       </c>
       <c r="G61" s="3">
-        <v>10087700</v>
+        <v>14594900</v>
       </c>
       <c r="H61" s="3">
-        <v>6855700</v>
+        <v>9457200</v>
       </c>
       <c r="I61" s="3">
-        <v>4280700</v>
+        <v>6427200</v>
       </c>
       <c r="J61" s="3">
+        <v>4013200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2799300</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5005900</v>
+        <v>4520700</v>
       </c>
       <c r="E62" s="3">
-        <v>3681400</v>
+        <v>4158400</v>
       </c>
       <c r="F62" s="3">
-        <v>3734700</v>
+        <v>3451400</v>
       </c>
       <c r="G62" s="3">
-        <v>7237200</v>
+        <v>3501300</v>
       </c>
       <c r="H62" s="3">
-        <v>4281900</v>
+        <v>6784900</v>
       </c>
       <c r="I62" s="3">
-        <v>3458400</v>
+        <v>4014300</v>
       </c>
       <c r="J62" s="3">
+        <v>3242300</v>
+      </c>
+      <c r="K62" s="3">
         <v>3147000</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23288300</v>
+        <v>20708100</v>
       </c>
       <c r="E66" s="3">
-        <v>24842700</v>
+        <v>21298200</v>
       </c>
       <c r="F66" s="3">
-        <v>25484600</v>
+        <v>23290100</v>
       </c>
       <c r="G66" s="3">
-        <v>20101300</v>
+        <v>23891800</v>
       </c>
       <c r="H66" s="3">
-        <v>19618800</v>
+        <v>18844900</v>
       </c>
       <c r="I66" s="3">
-        <v>14038700</v>
+        <v>18392600</v>
       </c>
       <c r="J66" s="3">
+        <v>13161300</v>
+      </c>
+      <c r="K66" s="3">
         <v>11153200</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3163800</v>
+        <v>5335100</v>
       </c>
       <c r="E72" s="3">
-        <v>1255700</v>
+        <v>2966000</v>
       </c>
       <c r="F72" s="3">
-        <v>449200</v>
+        <v>1263900</v>
       </c>
       <c r="G72" s="3">
-        <v>27931600</v>
+        <v>801600</v>
       </c>
       <c r="H72" s="3">
-        <v>25460100</v>
+        <v>30137000</v>
       </c>
       <c r="I72" s="3">
-        <v>16053700</v>
+        <v>23868800</v>
       </c>
       <c r="J72" s="3">
+        <v>15050300</v>
+      </c>
+      <c r="K72" s="3">
         <v>7271700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15327600</v>
+        <v>17164100</v>
       </c>
       <c r="E76" s="3">
-        <v>13975600</v>
+        <v>14369600</v>
       </c>
       <c r="F76" s="3">
-        <v>13874100</v>
+        <v>13102200</v>
       </c>
       <c r="G76" s="3">
-        <v>15366800</v>
+        <v>13007000</v>
       </c>
       <c r="H76" s="3">
-        <v>22758100</v>
+        <v>14406400</v>
       </c>
       <c r="I76" s="3">
-        <v>12047500</v>
+        <v>21335800</v>
       </c>
       <c r="J76" s="3">
+        <v>11294500</v>
+      </c>
+      <c r="K76" s="3">
         <v>11537700</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2118500</v>
+        <v>3466900</v>
       </c>
       <c r="E81" s="3">
-        <v>500700</v>
+        <v>1986100</v>
       </c>
       <c r="F81" s="3">
-        <v>-1276100</v>
+        <v>469400</v>
       </c>
       <c r="G81" s="3">
-        <v>1832200</v>
+        <v>-1196300</v>
       </c>
       <c r="H81" s="3">
-        <v>4194100</v>
+        <v>1717700</v>
       </c>
       <c r="I81" s="3">
-        <v>4702600</v>
+        <v>3932000</v>
       </c>
       <c r="J81" s="3">
+        <v>4408700</v>
+      </c>
+      <c r="K81" s="3">
         <v>4741500</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2645300</v>
+        <v>2307000</v>
       </c>
       <c r="E83" s="3">
-        <v>2429500</v>
+        <v>2479900</v>
       </c>
       <c r="F83" s="3">
-        <v>2166500</v>
+        <v>2277600</v>
       </c>
       <c r="G83" s="3">
-        <v>3408700</v>
+        <v>2031100</v>
       </c>
       <c r="H83" s="3">
-        <v>1765800</v>
+        <v>3195600</v>
       </c>
       <c r="I83" s="3">
-        <v>1592600</v>
+        <v>1655400</v>
       </c>
       <c r="J83" s="3">
+        <v>1493100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1635100</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5431600</v>
+        <v>6717700</v>
       </c>
       <c r="E89" s="3">
-        <v>4620200</v>
+        <v>5092100</v>
       </c>
       <c r="F89" s="3">
-        <v>3331700</v>
+        <v>4331400</v>
       </c>
       <c r="G89" s="3">
-        <v>5303400</v>
+        <v>3123400</v>
       </c>
       <c r="H89" s="3">
-        <v>5607300</v>
+        <v>4971900</v>
       </c>
       <c r="I89" s="3">
-        <v>6440700</v>
+        <v>5256800</v>
       </c>
       <c r="J89" s="3">
+        <v>6038200</v>
+      </c>
+      <c r="K89" s="3">
         <v>7091300</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1852700</v>
+        <v>-2506400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1845800</v>
+        <v>-1736900</v>
       </c>
       <c r="F91" s="3">
-        <v>-4524600</v>
+        <v>-1730500</v>
       </c>
       <c r="G91" s="3">
-        <v>-4467800</v>
+        <v>-4241800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2547200</v>
+        <v>-4188600</v>
       </c>
       <c r="I91" s="3">
-        <v>-2992000</v>
+        <v>-2388000</v>
       </c>
       <c r="J91" s="3">
+        <v>-2805000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3232100</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1402800</v>
+        <v>-2592600</v>
       </c>
       <c r="E94" s="3">
-        <v>-3068400</v>
+        <v>-1315100</v>
       </c>
       <c r="F94" s="3">
-        <v>-3694400</v>
+        <v>-2876600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3702000</v>
+        <v>-3463500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3092000</v>
+        <v>-3470700</v>
       </c>
       <c r="I94" s="3">
-        <v>-5124200</v>
+        <v>-2898700</v>
       </c>
       <c r="J94" s="3">
+        <v>-4804000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4673200</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-481500</v>
+        <v>-1328300</v>
       </c>
       <c r="E96" s="3">
-        <v>-547900</v>
+        <v>-451400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1757900</v>
+        <v>-513700</v>
       </c>
       <c r="G96" s="3">
-        <v>-572600</v>
+        <v>-1648000</v>
       </c>
       <c r="H96" s="3">
-        <v>-4662500</v>
+        <v>-536800</v>
       </c>
       <c r="I96" s="3">
-        <v>-2694200</v>
+        <v>-4371100</v>
       </c>
       <c r="J96" s="3">
+        <v>-2525800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1890200</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4084500</v>
+        <v>-4737200</v>
       </c>
       <c r="E100" s="3">
-        <v>-884200</v>
+        <v>-3829200</v>
       </c>
       <c r="F100" s="3">
-        <v>-445500</v>
+        <v>-828900</v>
       </c>
       <c r="G100" s="3">
-        <v>-2350800</v>
+        <v>-417700</v>
       </c>
       <c r="H100" s="3">
-        <v>-2264900</v>
+        <v>-2203900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1106300</v>
+        <v>-2123300</v>
       </c>
       <c r="J100" s="3">
+        <v>-1037200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1400900</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-92900</v>
+        <v>121900</v>
       </c>
       <c r="E101" s="3">
-        <v>-72400</v>
+        <v>-87100</v>
       </c>
       <c r="F101" s="3">
-        <v>466600</v>
+        <v>-67900</v>
       </c>
       <c r="G101" s="3">
-        <v>369700</v>
+        <v>437400</v>
       </c>
       <c r="H101" s="3">
-        <v>37800</v>
+        <v>346600</v>
       </c>
       <c r="I101" s="3">
-        <v>77400</v>
+        <v>35500</v>
       </c>
       <c r="J101" s="3">
+        <v>72600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5100</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-148700</v>
+        <v>-490200</v>
       </c>
       <c r="E102" s="3">
-        <v>595200</v>
+        <v>-139400</v>
       </c>
       <c r="F102" s="3">
-        <v>-341700</v>
+        <v>558000</v>
       </c>
       <c r="G102" s="3">
-        <v>-379800</v>
+        <v>-320300</v>
       </c>
       <c r="H102" s="3">
-        <v>288200</v>
+        <v>-356100</v>
       </c>
       <c r="I102" s="3">
-        <v>287600</v>
+        <v>270200</v>
       </c>
       <c r="J102" s="3">
+        <v>269600</v>
+      </c>
+      <c r="K102" s="3">
         <v>1012100</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
